--- a/docs/Arquivos processados/pifl3651PDOP.xlsx
+++ b/docs/Arquivos processados/pifl3651PDOP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio Araujo\OneDrive\6º periodo\PDS1\material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetoPDS1\trabalho-grupo-2\docs\Arquivos processados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867AC8A6-CD78-4E02-A6AD-699BFA2C764E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF841E-B067-4B9A-8786-3DEDDD86161B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,1104 +25,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="63">
   <si>
     <t>PDOP</t>
   </si>
   <si>
-    <t>8.262634</t>
+    <t>0.002574</t>
   </si>
   <si>
-    <t>5.848047</t>
+    <t>0.002573</t>
   </si>
   <si>
-    <t>4.695810</t>
+    <t>0.002572</t>
   </si>
   <si>
-    <t>3.941294</t>
+    <t>0.002571</t>
   </si>
   <si>
-    <t>3.382612</t>
+    <t>0.002570</t>
   </si>
   <si>
-    <t>2.947116</t>
+    <t>0.002569</t>
   </si>
   <si>
-    <t>2.599379</t>
+    <t>0.002568</t>
   </si>
   <si>
-    <t>2.317556</t>
+    <t>0.002567</t>
   </si>
   <si>
-    <t>2.086324</t>
+    <t>0.002566</t>
   </si>
   <si>
-    <t>1.894384</t>
+    <t>0.002565</t>
   </si>
   <si>
-    <t>1.733277</t>
+    <t>0.002564</t>
   </si>
   <si>
-    <t>1.596632</t>
+    <t>0.002563</t>
   </si>
   <si>
-    <t>1.479626</t>
+    <t>0.002562</t>
   </si>
   <si>
-    <t>1.378575</t>
+    <t>0.002561</t>
   </si>
   <si>
-    <t>1.290641</t>
+    <t>0.002560</t>
   </si>
   <si>
-    <t>1.213611</t>
+    <t>0.002559</t>
   </si>
   <si>
-    <t>1.145735</t>
+    <t>0.002558</t>
   </si>
   <si>
-    <t>1.085617</t>
+    <t>0.002557</t>
   </si>
   <si>
-    <t>1.032126</t>
+    <t>0.002556</t>
   </si>
   <si>
-    <t>0.984336</t>
+    <t>0.002555</t>
   </si>
   <si>
-    <t>0.941483</t>
+    <t>0.002554</t>
   </si>
   <si>
-    <t>0.902928</t>
+    <t>0.002553</t>
   </si>
   <si>
-    <t>0.868133</t>
+    <t>0.002552</t>
   </si>
   <si>
-    <t>0.836642</t>
+    <t>0.002551</t>
   </si>
   <si>
-    <t>0.808066</t>
+    <t>0.002550</t>
   </si>
   <si>
-    <t>0.782070</t>
+    <t>0.002549</t>
   </si>
   <si>
-    <t>0.758365</t>
+    <t>0.002548</t>
   </si>
   <si>
-    <t>0.736700</t>
+    <t>0.002547</t>
   </si>
   <si>
-    <t>0.716858</t>
+    <t>0.002546</t>
   </si>
   <si>
-    <t>0.698648</t>
+    <t>0.002545</t>
   </si>
   <si>
-    <t>0.681901</t>
+    <t>0.002544</t>
   </si>
   <si>
-    <t>0.666471</t>
+    <t>0.002543</t>
   </si>
   <si>
-    <t>0.652229</t>
+    <t>0.002542</t>
   </si>
   <si>
-    <t>0.639057</t>
+    <t>0.002541</t>
   </si>
   <si>
-    <t>0.626856</t>
+    <t>0.002540</t>
   </si>
   <si>
-    <t>0.615533</t>
+    <t>0.002539</t>
   </si>
   <si>
-    <t>0.605007</t>
+    <t>0.002538</t>
   </si>
   <si>
-    <t>0.595207</t>
+    <t>0.002537</t>
   </si>
   <si>
-    <t>0.586067</t>
+    <t>0.002536</t>
   </si>
   <si>
-    <t>0.577458</t>
+    <t>0.002535</t>
   </si>
   <si>
-    <t>0.569279</t>
+    <t>0.002534</t>
   </si>
   <si>
-    <t>0.561387</t>
+    <t>0.002595</t>
   </si>
   <si>
-    <t>0.553665</t>
+    <t>0.002594</t>
   </si>
   <si>
-    <t>0.546024</t>
+    <t>0.002593</t>
   </si>
   <si>
-    <t>0.538402</t>
+    <t>0.002592</t>
   </si>
   <si>
-    <t>0.530760</t>
+    <t>0.002591</t>
   </si>
   <si>
-    <t>0.523081</t>
+    <t>0.002590</t>
   </si>
   <si>
-    <t>0.515361</t>
+    <t>0.002589</t>
   </si>
   <si>
-    <t>0.507609</t>
+    <t>0.002588</t>
   </si>
   <si>
-    <t>0.499841</t>
+    <t>0.002587</t>
   </si>
   <si>
-    <t>0.492076</t>
+    <t>0.002586</t>
   </si>
   <si>
-    <t>0.484333</t>
+    <t>0.002585</t>
   </si>
   <si>
-    <t>0.476633</t>
+    <t>0.002584</t>
   </si>
   <si>
-    <t>0.468993</t>
+    <t>0.002583</t>
   </si>
   <si>
-    <t>0.461429</t>
+    <t>0.002582</t>
   </si>
   <si>
-    <t>0.453954</t>
+    <t>0.002581</t>
   </si>
   <si>
-    <t>0.446578</t>
+    <t>0.002580</t>
   </si>
   <si>
-    <t>0.439308</t>
+    <t>0.002579</t>
   </si>
   <si>
-    <t>0.432152</t>
+    <t>0.002578</t>
   </si>
   <si>
-    <t>0.425114</t>
+    <t>0.002577</t>
   </si>
   <si>
-    <t>0.418195</t>
+    <t>0.002576</t>
   </si>
   <si>
-    <t>0.411400</t>
-  </si>
-  <si>
-    <t>0.404727</t>
-  </si>
-  <si>
-    <t>0.398178</t>
-  </si>
-  <si>
-    <t>0.391753</t>
-  </si>
-  <si>
-    <t>0.385450</t>
-  </si>
-  <si>
-    <t>0.379269</t>
-  </si>
-  <si>
-    <t>0.373209</t>
-  </si>
-  <si>
-    <t>0.367268</t>
-  </si>
-  <si>
-    <t>0.361444</t>
-  </si>
-  <si>
-    <t>0.355736</t>
-  </si>
-  <si>
-    <t>0.350143</t>
-  </si>
-  <si>
-    <t>0.344662</t>
-  </si>
-  <si>
-    <t>0.339293</t>
-  </si>
-  <si>
-    <t>0.334032</t>
-  </si>
-  <si>
-    <t>0.328878</t>
-  </si>
-  <si>
-    <t>0.323829</t>
-  </si>
-  <si>
-    <t>0.318884</t>
-  </si>
-  <si>
-    <t>0.314041</t>
-  </si>
-  <si>
-    <t>0.309297</t>
-  </si>
-  <si>
-    <t>0.304650</t>
-  </si>
-  <si>
-    <t>0.300100</t>
-  </si>
-  <si>
-    <t>0.295643</t>
-  </si>
-  <si>
-    <t>0.291279</t>
-  </si>
-  <si>
-    <t>0.287005</t>
-  </si>
-  <si>
-    <t>0.282819</t>
-  </si>
-  <si>
-    <t>0.278719</t>
-  </si>
-  <si>
-    <t>0.274704</t>
-  </si>
-  <si>
-    <t>0.270772</t>
-  </si>
-  <si>
-    <t>0.266921</t>
-  </si>
-  <si>
-    <t>0.263149</t>
-  </si>
-  <si>
-    <t>0.259455</t>
-  </si>
-  <si>
-    <t>0.255836</t>
-  </si>
-  <si>
-    <t>0.252291</t>
-  </si>
-  <si>
-    <t>0.248819</t>
-  </si>
-  <si>
-    <t>0.245417</t>
-  </si>
-  <si>
-    <t>0.242085</t>
-  </si>
-  <si>
-    <t>0.238819</t>
-  </si>
-  <si>
-    <t>0.235620</t>
-  </si>
-  <si>
-    <t>0.232485</t>
-  </si>
-  <si>
-    <t>0.229413</t>
-  </si>
-  <si>
-    <t>0.226402</t>
-  </si>
-  <si>
-    <t>0.223451</t>
-  </si>
-  <si>
-    <t>0.220559</t>
-  </si>
-  <si>
-    <t>0.217724</t>
-  </si>
-  <si>
-    <t>0.214944</t>
-  </si>
-  <si>
-    <t>0.212219</t>
-  </si>
-  <si>
-    <t>0.209548</t>
-  </si>
-  <si>
-    <t>0.206928</t>
-  </si>
-  <si>
-    <t>0.204358</t>
-  </si>
-  <si>
-    <t>0.201839</t>
-  </si>
-  <si>
-    <t>0.199367</t>
-  </si>
-  <si>
-    <t>0.196943</t>
-  </si>
-  <si>
-    <t>0.194564</t>
-  </si>
-  <si>
-    <t>0.192231</t>
-  </si>
-  <si>
-    <t>0.189941</t>
-  </si>
-  <si>
-    <t>0.187695</t>
-  </si>
-  <si>
-    <t>0.185490</t>
-  </si>
-  <si>
-    <t>0.183326</t>
-  </si>
-  <si>
-    <t>0.181202</t>
-  </si>
-  <si>
-    <t>0.179116</t>
-  </si>
-  <si>
-    <t>0.177069</t>
-  </si>
-  <si>
-    <t>0.175059</t>
-  </si>
-  <si>
-    <t>0.173086</t>
-  </si>
-  <si>
-    <t>0.171147</t>
-  </si>
-  <si>
-    <t>0.169244</t>
-  </si>
-  <si>
-    <t>0.167374</t>
-  </si>
-  <si>
-    <t>0.165537</t>
-  </si>
-  <si>
-    <t>0.163733</t>
-  </si>
-  <si>
-    <t>0.161960</t>
-  </si>
-  <si>
-    <t>0.160217</t>
-  </si>
-  <si>
-    <t>0.158505</t>
-  </si>
-  <si>
-    <t>0.156823</t>
-  </si>
-  <si>
-    <t>0.155169</t>
-  </si>
-  <si>
-    <t>0.153543</t>
-  </si>
-  <si>
-    <t>0.151945</t>
-  </si>
-  <si>
-    <t>0.150374</t>
-  </si>
-  <si>
-    <t>0.148828</t>
-  </si>
-  <si>
-    <t>0.147309</t>
-  </si>
-  <si>
-    <t>0.145815</t>
-  </si>
-  <si>
-    <t>0.144345</t>
-  </si>
-  <si>
-    <t>0.142899</t>
-  </si>
-  <si>
-    <t>0.141477</t>
-  </si>
-  <si>
-    <t>0.140078</t>
-  </si>
-  <si>
-    <t>0.138701</t>
-  </si>
-  <si>
-    <t>0.137346</t>
-  </si>
-  <si>
-    <t>0.136012</t>
-  </si>
-  <si>
-    <t>0.134700</t>
-  </si>
-  <si>
-    <t>0.133408</t>
-  </si>
-  <si>
-    <t>0.132136</t>
-  </si>
-  <si>
-    <t>0.130884</t>
-  </si>
-  <si>
-    <t>0.129652</t>
-  </si>
-  <si>
-    <t>0.128438</t>
-  </si>
-  <si>
-    <t>0.127242</t>
-  </si>
-  <si>
-    <t>0.126065</t>
-  </si>
-  <si>
-    <t>0.124905</t>
-  </si>
-  <si>
-    <t>0.123763</t>
-  </si>
-  <si>
-    <t>0.122637</t>
-  </si>
-  <si>
-    <t>0.121528</t>
-  </si>
-  <si>
-    <t>0.120436</t>
-  </si>
-  <si>
-    <t>0.119359</t>
-  </si>
-  <si>
-    <t>0.118298</t>
-  </si>
-  <si>
-    <t>0.117252</t>
-  </si>
-  <si>
-    <t>0.116221</t>
-  </si>
-  <si>
-    <t>0.115204</t>
-  </si>
-  <si>
-    <t>0.114202</t>
-  </si>
-  <si>
-    <t>0.113214</t>
-  </si>
-  <si>
-    <t>0.112240</t>
-  </si>
-  <si>
-    <t>0.111279</t>
-  </si>
-  <si>
-    <t>0.110331</t>
-  </si>
-  <si>
-    <t>0.109396</t>
-  </si>
-  <si>
-    <t>0.108474</t>
-  </si>
-  <si>
-    <t>0.107565</t>
-  </si>
-  <si>
-    <t>0.106667</t>
-  </si>
-  <si>
-    <t>0.105781</t>
-  </si>
-  <si>
-    <t>0.104907</t>
-  </si>
-  <si>
-    <t>0.104045</t>
-  </si>
-  <si>
-    <t>0.103193</t>
-  </si>
-  <si>
-    <t>0.102353</t>
-  </si>
-  <si>
-    <t>0.101523</t>
-  </si>
-  <si>
-    <t>0.100704</t>
-  </si>
-  <si>
-    <t>0.099895</t>
-  </si>
-  <si>
-    <t>0.099096</t>
-  </si>
-  <si>
-    <t>0.098308</t>
-  </si>
-  <si>
-    <t>0.097529</t>
-  </si>
-  <si>
-    <t>0.096759</t>
-  </si>
-  <si>
-    <t>0.095999</t>
-  </si>
-  <si>
-    <t>0.095248</t>
-  </si>
-  <si>
-    <t>0.094506</t>
-  </si>
-  <si>
-    <t>0.093773</t>
-  </si>
-  <si>
-    <t>0.093048</t>
-  </si>
-  <si>
-    <t>0.092332</t>
-  </si>
-  <si>
-    <t>0.091624</t>
-  </si>
-  <si>
-    <t>0.090925</t>
-  </si>
-  <si>
-    <t>0.090233</t>
-  </si>
-  <si>
-    <t>0.089549</t>
-  </si>
-  <si>
-    <t>0.088873</t>
-  </si>
-  <si>
-    <t>0.088205</t>
-  </si>
-  <si>
-    <t>0.087543</t>
-  </si>
-  <si>
-    <t>0.086890</t>
-  </si>
-  <si>
-    <t>0.086242</t>
-  </si>
-  <si>
-    <t>0.085600</t>
-  </si>
-  <si>
-    <t>0.084965</t>
-  </si>
-  <si>
-    <t>0.084335</t>
-  </si>
-  <si>
-    <t>0.083710</t>
-  </si>
-  <si>
-    <t>0.083089</t>
-  </si>
-  <si>
-    <t>0.082473</t>
-  </si>
-  <si>
-    <t>0.081861</t>
-  </si>
-  <si>
-    <t>0.081253</t>
-  </si>
-  <si>
-    <t>0.080648</t>
-  </si>
-  <si>
-    <t>0.080046</t>
-  </si>
-  <si>
-    <t>0.079448</t>
-  </si>
-  <si>
-    <t>0.078852</t>
-  </si>
-  <si>
-    <t>0.078258</t>
-  </si>
-  <si>
-    <t>0.077667</t>
-  </si>
-  <si>
-    <t>0.077078</t>
-  </si>
-  <si>
-    <t>0.076490</t>
-  </si>
-  <si>
-    <t>0.075904</t>
-  </si>
-  <si>
-    <t>0.075320</t>
-  </si>
-  <si>
-    <t>0.074738</t>
-  </si>
-  <si>
-    <t>0.074157</t>
-  </si>
-  <si>
-    <t>0.073578</t>
-  </si>
-  <si>
-    <t>0.073001</t>
-  </si>
-  <si>
-    <t>0.072425</t>
-  </si>
-  <si>
-    <t>0.071851</t>
-  </si>
-  <si>
-    <t>0.071279</t>
-  </si>
-  <si>
-    <t>0.070709</t>
-  </si>
-  <si>
-    <t>0.070141</t>
-  </si>
-  <si>
-    <t>0.069576</t>
-  </si>
-  <si>
-    <t>0.069012</t>
-  </si>
-  <si>
-    <t>0.068451</t>
-  </si>
-  <si>
-    <t>0.067893</t>
-  </si>
-  <si>
-    <t>0.067346</t>
-  </si>
-  <si>
-    <t>0.066805</t>
-  </si>
-  <si>
-    <t>0.066267</t>
-  </si>
-  <si>
-    <t>0.065735</t>
-  </si>
-  <si>
-    <t>0.065206</t>
-  </si>
-  <si>
-    <t>0.064755</t>
-  </si>
-  <si>
-    <t>0.064316</t>
-  </si>
-  <si>
-    <t>0.063885</t>
-  </si>
-  <si>
-    <t>0.063457</t>
-  </si>
-  <si>
-    <t>0.063032</t>
-  </si>
-  <si>
-    <t>0.062608</t>
-  </si>
-  <si>
-    <t>0.062187</t>
-  </si>
-  <si>
-    <t>0.061767</t>
-  </si>
-  <si>
-    <t>0.061349</t>
-  </si>
-  <si>
-    <t>0.060932</t>
-  </si>
-  <si>
-    <t>0.060517</t>
-  </si>
-  <si>
-    <t>0.060104</t>
-  </si>
-  <si>
-    <t>0.059693</t>
-  </si>
-  <si>
-    <t>0.059283</t>
-  </si>
-  <si>
-    <t>0.058876</t>
-  </si>
-  <si>
-    <t>0.058470</t>
-  </si>
-  <si>
-    <t>0.058067</t>
-  </si>
-  <si>
-    <t>0.057666</t>
-  </si>
-  <si>
-    <t>0.057268</t>
-  </si>
-  <si>
-    <t>0.056871</t>
-  </si>
-  <si>
-    <t>0.056477</t>
-  </si>
-  <si>
-    <t>0.056086</t>
-  </si>
-  <si>
-    <t>0.055697</t>
-  </si>
-  <si>
-    <t>0.055310</t>
-  </si>
-  <si>
-    <t>0.054926</t>
-  </si>
-  <si>
-    <t>0.054545</t>
-  </si>
-  <si>
-    <t>0.054167</t>
-  </si>
-  <si>
-    <t>0.053791</t>
-  </si>
-  <si>
-    <t>0.053418</t>
-  </si>
-  <si>
-    <t>0.053047</t>
-  </si>
-  <si>
-    <t>0.052680</t>
-  </si>
-  <si>
-    <t>0.052315</t>
-  </si>
-  <si>
-    <t>0.051953</t>
-  </si>
-  <si>
-    <t>0.051595</t>
-  </si>
-  <si>
-    <t>0.051238</t>
-  </si>
-  <si>
-    <t>0.050885</t>
-  </si>
-  <si>
-    <t>0.050535</t>
-  </si>
-  <si>
-    <t>0.050188</t>
-  </si>
-  <si>
-    <t>0.049843</t>
-  </si>
-  <si>
-    <t>0.049502</t>
-  </si>
-  <si>
-    <t>0.049163</t>
-  </si>
-  <si>
-    <t>0.048828</t>
-  </si>
-  <si>
-    <t>0.048495</t>
-  </si>
-  <si>
-    <t>0.048165</t>
-  </si>
-  <si>
-    <t>0.047838</t>
-  </si>
-  <si>
-    <t>0.047514</t>
-  </si>
-  <si>
-    <t>0.047193</t>
-  </si>
-  <si>
-    <t>0.046875</t>
-  </si>
-  <si>
-    <t>0.046559</t>
-  </si>
-  <si>
-    <t>0.046247</t>
-  </si>
-  <si>
-    <t>0.045937</t>
-  </si>
-  <si>
-    <t>0.045630</t>
-  </si>
-  <si>
-    <t>0.045326</t>
-  </si>
-  <si>
-    <t>0.045025</t>
-  </si>
-  <si>
-    <t>0.044726</t>
-  </si>
-  <si>
-    <t>0.044430</t>
-  </si>
-  <si>
-    <t>0.044137</t>
-  </si>
-  <si>
-    <t>0.043846</t>
-  </si>
-  <si>
-    <t>0.043558</t>
-  </si>
-  <si>
-    <t>0.043273</t>
-  </si>
-  <si>
-    <t>0.042991</t>
-  </si>
-  <si>
-    <t>0.042711</t>
-  </si>
-  <si>
-    <t>0.042433</t>
-  </si>
-  <si>
-    <t>0.042158</t>
-  </si>
-  <si>
-    <t>0.041886</t>
-  </si>
-  <si>
-    <t>0.041616</t>
-  </si>
-  <si>
-    <t>0.041348</t>
-  </si>
-  <si>
-    <t>0.041083</t>
-  </si>
-  <si>
-    <t>0.040820</t>
-  </si>
-  <si>
-    <t>0.040560</t>
-  </si>
-  <si>
-    <t>0.040302</t>
-  </si>
-  <si>
-    <t>0.040046</t>
-  </si>
-  <si>
-    <t>0.039793</t>
-  </si>
-  <si>
-    <t>0.039542</t>
-  </si>
-  <si>
-    <t>0.039293</t>
-  </si>
-  <si>
-    <t>0.039046</t>
-  </si>
-  <si>
-    <t>0.038801</t>
-  </si>
-  <si>
-    <t>0.038559</t>
-  </si>
-  <si>
-    <t>0.038318</t>
-  </si>
-  <si>
-    <t>0.038080</t>
-  </si>
-  <si>
-    <t>0.037844</t>
-  </si>
-  <si>
-    <t>0.037610</t>
-  </si>
-  <si>
-    <t>0.037377</t>
-  </si>
-  <si>
-    <t>0.037147</t>
-  </si>
-  <si>
-    <t>0.036919</t>
-  </si>
-  <si>
-    <t>0.036693</t>
-  </si>
-  <si>
-    <t>0.036468</t>
-  </si>
-  <si>
-    <t>0.036246</t>
-  </si>
-  <si>
-    <t>0.036025</t>
-  </si>
-  <si>
-    <t>0.035806</t>
-  </si>
-  <si>
-    <t>0.035589</t>
-  </si>
-  <si>
-    <t>0.035374</t>
-  </si>
-  <si>
-    <t>0.035160</t>
-  </si>
-  <si>
-    <t>0.034948</t>
-  </si>
-  <si>
-    <t>0.034738</t>
-  </si>
-  <si>
-    <t>0.034530</t>
-  </si>
-  <si>
-    <t>0.034323</t>
-  </si>
-  <si>
-    <t>0.034118</t>
-  </si>
-  <si>
-    <t>0.033915</t>
-  </si>
-  <si>
-    <t>0.033713</t>
-  </si>
-  <si>
-    <t>0.033513</t>
-  </si>
-  <si>
-    <t>0.033314</t>
-  </si>
-  <si>
-    <t>0.033117</t>
-  </si>
-  <si>
-    <t>0.032922</t>
-  </si>
-  <si>
-    <t>0.032728</t>
-  </si>
-  <si>
-    <t>0.032536</t>
-  </si>
-  <si>
-    <t>0.032345</t>
-  </si>
-  <si>
-    <t>0.032155</t>
-  </si>
-  <si>
-    <t>0.031968</t>
-  </si>
-  <si>
-    <t>0.031781</t>
-  </si>
-  <si>
-    <t>0.031596</t>
-  </si>
-  <si>
-    <t>0.031413</t>
-  </si>
-  <si>
-    <t>0.031231</t>
-  </si>
-  <si>
-    <t>0.031050</t>
-  </si>
-  <si>
-    <t>0.030871</t>
-  </si>
-  <si>
-    <t>0.030693</t>
-  </si>
-  <si>
-    <t>0.030517</t>
-  </si>
-  <si>
-    <t>0.030342</t>
-  </si>
-  <si>
-    <t>0.030168</t>
-  </si>
-  <si>
-    <t>0.029996</t>
-  </si>
-  <si>
-    <t>0.029825</t>
-  </si>
-  <si>
-    <t>0.029656</t>
-  </si>
-  <si>
-    <t>0.029488</t>
-  </si>
-  <si>
-    <t>0.029321</t>
-  </si>
-  <si>
-    <t>0.029155</t>
-  </si>
-  <si>
-    <t>0.028991</t>
-  </si>
-  <si>
-    <t>0.028828</t>
-  </si>
-  <si>
-    <t>0.028667</t>
+    <t>0.002575</t>
   </si>
 </sst>
 </file>
@@ -1441,302 +532,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5761"/>
+  <dimension ref="A1:B5634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367:A5761"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -1746,1537 +838,1537 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>241</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>273</v>
+        <v>27</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>278</v>
+        <v>27</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>281</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>291</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>297</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>308</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>311</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>312</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>313</v>
+        <v>33</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>316</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>317</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>318</v>
+        <v>33</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>319</v>
+        <v>33</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>321</v>
+        <v>34</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>322</v>
+        <v>34</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>323</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>324</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>325</v>
+        <v>34</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>326</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>327</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>328</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>329</v>
+        <v>35</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>330</v>
+        <v>35</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>331</v>
+        <v>35</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>332</v>
+        <v>36</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>333</v>
+        <v>36</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>335</v>
+        <v>36</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>336</v>
+        <v>36</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>337</v>
+        <v>36</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>338</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>339</v>
+        <v>37</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>340</v>
+        <v>37</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>341</v>
+        <v>37</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>342</v>
+        <v>37</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>343</v>
+        <v>37</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>345</v>
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>346</v>
+        <v>38</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>347</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>348</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>349</v>
+        <v>38</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>350</v>
+        <v>38</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>351</v>
+        <v>39</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>352</v>
+        <v>39</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>353</v>
+        <v>39</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>354</v>
+        <v>39</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>355</v>
+        <v>39</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>356</v>
+        <v>39</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>357</v>
+        <v>40</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>360</v>
+        <v>40</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>363</v>
+        <v>41</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>364</v>
+        <v>41</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>365</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
@@ -19082,387 +18174,6 @@
     </row>
     <row r="5634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5634" s="1"/>
-    </row>
-    <row r="5635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5635" s="1"/>
-    </row>
-    <row r="5636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5636" s="1"/>
-    </row>
-    <row r="5637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5637" s="1"/>
-    </row>
-    <row r="5638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5638" s="1"/>
-    </row>
-    <row r="5639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5639" s="1"/>
-    </row>
-    <row r="5640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5640" s="1"/>
-    </row>
-    <row r="5641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5641" s="1"/>
-    </row>
-    <row r="5642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5642" s="1"/>
-    </row>
-    <row r="5643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5643" s="1"/>
-    </row>
-    <row r="5644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5644" s="1"/>
-    </row>
-    <row r="5645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5645" s="1"/>
-    </row>
-    <row r="5646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5646" s="1"/>
-    </row>
-    <row r="5647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5647" s="1"/>
-    </row>
-    <row r="5648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5648" s="1"/>
-    </row>
-    <row r="5649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5649" s="1"/>
-    </row>
-    <row r="5650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5650" s="1"/>
-    </row>
-    <row r="5651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5651" s="1"/>
-    </row>
-    <row r="5652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5652" s="1"/>
-    </row>
-    <row r="5653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5653" s="1"/>
-    </row>
-    <row r="5654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5654" s="1"/>
-    </row>
-    <row r="5655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5655" s="1"/>
-    </row>
-    <row r="5656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5656" s="1"/>
-    </row>
-    <row r="5657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5657" s="1"/>
-    </row>
-    <row r="5658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5658" s="1"/>
-    </row>
-    <row r="5659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5659" s="1"/>
-    </row>
-    <row r="5660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5660" s="1"/>
-    </row>
-    <row r="5661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5661" s="1"/>
-    </row>
-    <row r="5662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5662" s="1"/>
-    </row>
-    <row r="5663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5663" s="1"/>
-    </row>
-    <row r="5664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5664" s="1"/>
-    </row>
-    <row r="5665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5665" s="1"/>
-    </row>
-    <row r="5666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5666" s="1"/>
-    </row>
-    <row r="5667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5667" s="1"/>
-    </row>
-    <row r="5668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5668" s="1"/>
-    </row>
-    <row r="5669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5669" s="1"/>
-    </row>
-    <row r="5670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5670" s="1"/>
-    </row>
-    <row r="5671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5671" s="1"/>
-    </row>
-    <row r="5672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5672" s="1"/>
-    </row>
-    <row r="5673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5673" s="1"/>
-    </row>
-    <row r="5674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5674" s="1"/>
-    </row>
-    <row r="5675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5675" s="1"/>
-    </row>
-    <row r="5676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5676" s="1"/>
-    </row>
-    <row r="5677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5677" s="1"/>
-    </row>
-    <row r="5678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5678" s="1"/>
-    </row>
-    <row r="5679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5679" s="1"/>
-    </row>
-    <row r="5680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5680" s="1"/>
-    </row>
-    <row r="5681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5681" s="1"/>
-    </row>
-    <row r="5682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5682" s="1"/>
-    </row>
-    <row r="5683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5683" s="1"/>
-    </row>
-    <row r="5684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5684" s="1"/>
-    </row>
-    <row r="5685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5685" s="1"/>
-    </row>
-    <row r="5686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5686" s="1"/>
-    </row>
-    <row r="5687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5687" s="1"/>
-    </row>
-    <row r="5688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5688" s="1"/>
-    </row>
-    <row r="5689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5689" s="1"/>
-    </row>
-    <row r="5690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5690" s="1"/>
-    </row>
-    <row r="5691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5691" s="1"/>
-    </row>
-    <row r="5692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5692" s="1"/>
-    </row>
-    <row r="5693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5693" s="1"/>
-    </row>
-    <row r="5694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5694" s="1"/>
-    </row>
-    <row r="5695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5695" s="1"/>
-    </row>
-    <row r="5696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5696" s="1"/>
-    </row>
-    <row r="5697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5697" s="1"/>
-    </row>
-    <row r="5698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5698" s="1"/>
-    </row>
-    <row r="5699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5699" s="1"/>
-    </row>
-    <row r="5700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5700" s="1"/>
-    </row>
-    <row r="5701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5701" s="1"/>
-    </row>
-    <row r="5702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5702" s="1"/>
-    </row>
-    <row r="5703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5703" s="1"/>
-    </row>
-    <row r="5704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5704" s="1"/>
-    </row>
-    <row r="5705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5705" s="1"/>
-    </row>
-    <row r="5706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5706" s="1"/>
-    </row>
-    <row r="5707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5707" s="1"/>
-    </row>
-    <row r="5708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5708" s="1"/>
-    </row>
-    <row r="5709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5709" s="1"/>
-    </row>
-    <row r="5710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5710" s="1"/>
-    </row>
-    <row r="5711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5711" s="1"/>
-    </row>
-    <row r="5712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5712" s="1"/>
-    </row>
-    <row r="5713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5713" s="1"/>
-    </row>
-    <row r="5714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5714" s="1"/>
-    </row>
-    <row r="5715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5715" s="1"/>
-    </row>
-    <row r="5716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5716" s="1"/>
-    </row>
-    <row r="5717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5717" s="1"/>
-    </row>
-    <row r="5718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5718" s="1"/>
-    </row>
-    <row r="5719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5719" s="1"/>
-    </row>
-    <row r="5720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5720" s="1"/>
-    </row>
-    <row r="5721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5721" s="1"/>
-    </row>
-    <row r="5722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5722" s="1"/>
-    </row>
-    <row r="5723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5723" s="1"/>
-    </row>
-    <row r="5724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5724" s="1"/>
-    </row>
-    <row r="5725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5725" s="1"/>
-    </row>
-    <row r="5726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5726" s="1"/>
-    </row>
-    <row r="5727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5727" s="1"/>
-    </row>
-    <row r="5728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5728" s="1"/>
-    </row>
-    <row r="5729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5729" s="1"/>
-    </row>
-    <row r="5730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5730" s="1"/>
-    </row>
-    <row r="5731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5731" s="1"/>
-    </row>
-    <row r="5732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5732" s="1"/>
-    </row>
-    <row r="5733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5733" s="1"/>
-    </row>
-    <row r="5734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5734" s="1"/>
-    </row>
-    <row r="5735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5735" s="1"/>
-    </row>
-    <row r="5736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5736" s="1"/>
-    </row>
-    <row r="5737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5737" s="1"/>
-    </row>
-    <row r="5738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5738" s="1"/>
-    </row>
-    <row r="5739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5739" s="1"/>
-    </row>
-    <row r="5740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5740" s="1"/>
-    </row>
-    <row r="5741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5741" s="1"/>
-    </row>
-    <row r="5742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5742" s="1"/>
-    </row>
-    <row r="5743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5743" s="1"/>
-    </row>
-    <row r="5744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5744" s="1"/>
-    </row>
-    <row r="5745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5745" s="1"/>
-    </row>
-    <row r="5746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5746" s="1"/>
-    </row>
-    <row r="5747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5747" s="1"/>
-    </row>
-    <row r="5748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5748" s="1"/>
-    </row>
-    <row r="5749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5749" s="1"/>
-    </row>
-    <row r="5750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5750" s="1"/>
-    </row>
-    <row r="5751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5751" s="1"/>
-    </row>
-    <row r="5752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5752" s="1"/>
-    </row>
-    <row r="5753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5753" s="1"/>
-    </row>
-    <row r="5754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5754" s="1"/>
-    </row>
-    <row r="5755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5755" s="1"/>
-    </row>
-    <row r="5756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5756" s="1"/>
-    </row>
-    <row r="5757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5757" s="1"/>
-    </row>
-    <row r="5758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5758" s="1"/>
-    </row>
-    <row r="5759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5759" s="1"/>
-    </row>
-    <row r="5760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5760" s="1"/>
-    </row>
-    <row r="5761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5761" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
